--- a/miniset_2.xlsx
+++ b/miniset_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joval\Documents\U\2021-2\Taller de investigación operativa (capstone)\Proyecto-capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC1F564-4437-483E-80E0-7168816711AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAC6B25-BEBD-4BE9-86A2-47F99C8A4B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B86D1E0-EB87-47BF-95B9-49DE9A02D48C}"/>
+    <workbookView xWindow="31590" yWindow="2895" windowWidth="21600" windowHeight="11220" activeTab="1" xr2:uid="{3B86D1E0-EB87-47BF-95B9-49DE9A02D48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCFFDB3-8AD5-4BC9-B3A8-4FB1FED56F5D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D99605-6B2B-40A7-A526-63A27A4B63BC}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>2368</v>
+        <v>16501</v>
       </c>
       <c r="E2">
         <v>354894</v>
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>6919</v>
+        <v>16500</v>
       </c>
       <c r="E3">
         <v>536901</v>
